--- a/Михаил Соловьев.xlsx
+++ b/Михаил Соловьев.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -33,6 +33,7 @@
     <font>
       <b val="1"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -437,25 +438,53 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Отчет Январь 2022г.</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n"/>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Соловьев Михаил.</t>
+        </is>
+      </c>
     </row>
     <row r="3"/>
     <row r="4">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="2" t="n"/>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Образцы</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Баллы</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n"/>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Сумма</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6"/>
     <row r="7"/>
     <row r="8">
-      <c r="A8" s="2" t="n"/>
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Задания</t>
+        </is>
+      </c>
     </row>
     <row r="9"/>
     <row r="10"/>
